--- a/app/data/despesas_do_resumo.xlsx
+++ b/app/data/despesas_do_resumo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="99">
   <si>
     <t>municipio</t>
   </si>
@@ -668,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H724"/>
+  <dimension ref="A1:H725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>2013</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>747739237.99</v>
       </c>
       <c r="E2">
         <v>724052468.42</v>
@@ -734,7 +734,7 @@
         <v>2013</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>239813533.04</v>
       </c>
       <c r="E3">
         <v>226733571.86</v>
@@ -760,7 +760,7 @@
         <v>2013</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>38841396.14</v>
       </c>
       <c r="E4">
         <v>36837919.09</v>
@@ -786,7 +786,7 @@
         <v>2013</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>174074986.78</v>
       </c>
       <c r="E5">
         <v>169392751.2</v>
@@ -812,7 +812,7 @@
         <v>2013</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>127599562.07</v>
       </c>
       <c r="E6">
         <v>119754189.07</v>
@@ -838,7 +838,7 @@
         <v>2013</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>164151550.77</v>
       </c>
       <c r="E7">
         <v>131245116.58</v>
@@ -864,7 +864,7 @@
         <v>2013</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>321779667.13</v>
       </c>
       <c r="E8">
         <v>309178710.44</v>
@@ -890,7 +890,7 @@
         <v>2013</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>517341742.79</v>
       </c>
       <c r="E9">
         <v>506614284.38</v>
@@ -916,7 +916,7 @@
         <v>2013</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>67527748.5</v>
       </c>
       <c r="E10">
         <v>62990653.72</v>
@@ -942,7 +942,7 @@
         <v>2013</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>69966543.29000001</v>
       </c>
       <c r="E11">
         <v>64637483.92</v>
@@ -968,7 +968,7 @@
         <v>2013</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>764042725.29</v>
       </c>
       <c r="E12">
         <v>698237346.91</v>
@@ -994,7 +994,7 @@
         <v>2013</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>162383536.31</v>
       </c>
       <c r="E13">
         <v>153068615.37</v>
@@ -1020,7 +1020,7 @@
         <v>2013</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>36719289.06</v>
       </c>
       <c r="E14">
         <v>35014718.12</v>
@@ -1046,7 +1046,7 @@
         <v>2013</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>95174425.63</v>
       </c>
       <c r="E15">
         <v>91552184.27</v>
@@ -1072,7 +1072,7 @@
         <v>2013</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>31275652.56</v>
       </c>
       <c r="E16">
         <v>30366177.82</v>
@@ -1098,7 +1098,7 @@
         <v>2013</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2296732047.88</v>
       </c>
       <c r="E17">
         <v>1862257114.81</v>
@@ -1124,7 +1124,7 @@
         <v>2013</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>72527763.04000001</v>
       </c>
       <c r="E18">
         <v>70033657.09999999</v>
@@ -1150,7 +1150,7 @@
         <v>2013</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>40379930.07</v>
       </c>
       <c r="E19">
         <v>38690496.3</v>
@@ -1176,7 +1176,7 @@
         <v>2013</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>51045659.41</v>
       </c>
       <c r="E20">
         <v>48898297.78</v>
@@ -1202,7 +1202,7 @@
         <v>2013</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>211898032.42</v>
       </c>
       <c r="E21">
         <v>204691921.15</v>
@@ -1228,7 +1228,7 @@
         <v>2013</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>52933251.78</v>
       </c>
       <c r="E22">
         <v>49559559.26</v>
@@ -1254,7 +1254,7 @@
         <v>2013</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>53404441.18</v>
       </c>
       <c r="E23">
         <v>52519740.41</v>
@@ -1280,7 +1280,7 @@
         <v>2013</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>39178940.65</v>
       </c>
       <c r="E24">
         <v>37224837.4</v>
@@ -1306,7 +1306,7 @@
         <v>2013</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1725199163.51</v>
       </c>
       <c r="E25">
         <v>1664915424.45</v>
@@ -1332,7 +1332,7 @@
         <v>2013</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>38333730.33</v>
       </c>
       <c r="E26">
         <v>36169320.91</v>
@@ -1358,7 +1358,7 @@
         <v>2013</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>130279396.68</v>
       </c>
       <c r="E27">
         <v>127004831.19</v>
@@ -1384,7 +1384,7 @@
         <v>2013</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>65853816.46</v>
       </c>
       <c r="E28">
         <v>61133804.55</v>
@@ -1410,7 +1410,7 @@
         <v>2013</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>556798977.91</v>
       </c>
       <c r="E29">
         <v>535586169.37</v>
@@ -1436,7 +1436,7 @@
         <v>2013</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>409516915.46</v>
       </c>
       <c r="E30">
         <v>401606159.68</v>
@@ -1462,7 +1462,7 @@
         <v>2013</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>39452875.45</v>
       </c>
       <c r="E31">
         <v>37231356.14</v>
@@ -1488,7 +1488,7 @@
         <v>2013</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>50824715.55</v>
       </c>
       <c r="E32">
         <v>49253866.39</v>
@@ -1514,7 +1514,7 @@
         <v>2013</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>174148936.81</v>
       </c>
       <c r="E33">
         <v>170757369.58</v>
@@ -1540,7 +1540,7 @@
         <v>2013</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>110510503.37</v>
       </c>
       <c r="E34">
         <v>105626428.02</v>
@@ -1566,7 +1566,7 @@
         <v>2013</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>129692994.54</v>
       </c>
       <c r="E35">
         <v>122489981.87</v>
@@ -1592,7 +1592,7 @@
         <v>2013</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>27320411.13</v>
       </c>
       <c r="E36">
         <v>25252315.63</v>
@@ -1618,7 +1618,7 @@
         <v>2013</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1727568767.25</v>
       </c>
       <c r="E37">
         <v>1612275285.65</v>
@@ -1644,7 +1644,7 @@
         <v>2013</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>32752207.13</v>
       </c>
       <c r="E38">
         <v>30559772.98</v>
@@ -1670,7 +1670,7 @@
         <v>2013</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>374524528.46</v>
       </c>
       <c r="E39">
         <v>366232886.21</v>
@@ -1696,7 +1696,7 @@
         <v>2013</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>264432901.79</v>
       </c>
       <c r="E40">
         <v>253718237.97</v>
@@ -1722,7 +1722,7 @@
         <v>2013</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>376080033.77</v>
       </c>
       <c r="E41">
         <v>320965346.66</v>
@@ -1748,7 +1748,7 @@
         <v>2013</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>46204629.08</v>
       </c>
       <c r="E42">
         <v>43542492.39</v>
@@ -1774,7 +1774,7 @@
         <v>2013</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>214291320.37</v>
       </c>
       <c r="E43">
         <v>198781079.89</v>
@@ -1800,7 +1800,7 @@
         <v>2013</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>63032867.72</v>
       </c>
       <c r="E44">
         <v>62791868.74</v>
@@ -1826,7 +1826,7 @@
         <v>2013</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>67348226.79000001</v>
       </c>
       <c r="E45">
         <v>65557610.85</v>
@@ -1852,7 +1852,7 @@
         <v>2013</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>53428811.79</v>
       </c>
       <c r="E46">
         <v>51977997.09</v>
@@ -1878,7 +1878,7 @@
         <v>2013</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>196967498.98</v>
       </c>
       <c r="E47">
         <v>191436151.49</v>
@@ -1904,7 +1904,7 @@
         <v>2013</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1321757326.82</v>
       </c>
       <c r="E48">
         <v>1277006807.28</v>
@@ -1930,7 +1930,7 @@
         <v>2013</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>316584212.48</v>
       </c>
       <c r="E49">
         <v>285797303.82</v>
@@ -1956,7 +1956,7 @@
         <v>2013</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1036886895.06</v>
       </c>
       <c r="E50">
         <v>932239037.74</v>
@@ -1982,7 +1982,7 @@
         <v>2013</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>104972550.42</v>
       </c>
       <c r="E51">
         <v>82472220.73999999</v>
@@ -2008,7 +2008,7 @@
         <v>2013</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>83586853.61</v>
       </c>
       <c r="E52">
         <v>79762503.98</v>
@@ -2034,7 +2034,7 @@
         <v>2013</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>151582276</v>
       </c>
       <c r="E53">
         <v>148094349.64</v>
@@ -2060,7 +2060,7 @@
         <v>2013</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>60485734.63</v>
       </c>
       <c r="E54">
         <v>58736596.47</v>
@@ -2086,7 +2086,7 @@
         <v>2013</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>754943702.64</v>
       </c>
       <c r="E55">
         <v>724525044.9299999</v>
@@ -2112,7 +2112,7 @@
         <v>2013</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>48039557.34</v>
       </c>
       <c r="E56">
         <v>45449136.14</v>
@@ -2138,7 +2138,7 @@
         <v>2013</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>141175723.54</v>
       </c>
       <c r="E57">
         <v>134358958.81</v>
@@ -2164,7 +2164,7 @@
         <v>2013</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>49308923.82</v>
       </c>
       <c r="E58">
         <v>47989058.74</v>
@@ -2190,7 +2190,7 @@
         <v>2013</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>189481157.85</v>
       </c>
       <c r="E59">
         <v>180558661.01</v>
@@ -2216,7 +2216,7 @@
         <v>2013</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>47833690.56</v>
       </c>
       <c r="E60">
         <v>38744819.47</v>
@@ -2242,7 +2242,7 @@
         <v>2013</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>206674702.15</v>
       </c>
       <c r="E61">
         <v>188965215.3</v>
@@ -2268,7 +2268,7 @@
         <v>2013</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>224240576.22</v>
       </c>
       <c r="E62">
         <v>213412897.81</v>
@@ -2294,7 +2294,7 @@
         <v>2013</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>355841251.84</v>
       </c>
       <c r="E63">
         <v>338315204.88</v>
@@ -2320,7 +2320,7 @@
         <v>2013</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>161354807.15</v>
       </c>
       <c r="E64">
         <v>160116259.88</v>
@@ -2346,7 +2346,7 @@
         <v>2013</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>61130155.21</v>
       </c>
       <c r="E65">
         <v>58900133.14</v>
@@ -2372,7 +2372,7 @@
         <v>2013</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>37271107.44</v>
       </c>
       <c r="E66">
         <v>35262379.52</v>
@@ -2398,7 +2398,7 @@
         <v>2013</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>631852314.14</v>
       </c>
       <c r="E67">
         <v>529927644.22</v>
@@ -2424,7 +2424,7 @@
         <v>2013</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>21073647494.4</v>
       </c>
       <c r="E68">
         <v>17970567458.77</v>
@@ -2450,7 +2450,7 @@
         <v>2013</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>41858280.7</v>
       </c>
       <c r="E69">
         <v>40971288.32</v>
@@ -2476,7 +2476,7 @@
         <v>2013</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>73073970.7</v>
       </c>
       <c r="E70">
         <v>69023446.27</v>
@@ -2502,7 +2502,7 @@
         <v>2013</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>90465624.14</v>
       </c>
       <c r="E71">
         <v>87462189.75</v>
@@ -2528,7 +2528,7 @@
         <v>2013</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>73122215.58</v>
       </c>
       <c r="E72">
         <v>69578862.23</v>
@@ -2554,7 +2554,7 @@
         <v>2013</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>823631166.04</v>
       </c>
       <c r="E73">
         <v>768087844.4299999</v>
@@ -2580,7 +2580,7 @@
         <v>2013</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>354357302.08</v>
       </c>
       <c r="E74">
         <v>344122497.72</v>
@@ -2606,7 +2606,7 @@
         <v>2013</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>485804609.19</v>
       </c>
       <c r="E75">
         <v>451408522.15</v>
@@ -2632,7 +2632,7 @@
         <v>2013</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>29973747.87</v>
       </c>
       <c r="E76">
         <v>28780107.08</v>
@@ -2658,7 +2658,7 @@
         <v>2013</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>43108918.44</v>
       </c>
       <c r="E77">
         <v>41183517.95</v>
@@ -2684,7 +2684,7 @@
         <v>2013</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>140532956.27</v>
       </c>
       <c r="E78">
         <v>135666261.74</v>
@@ -2710,7 +2710,7 @@
         <v>2013</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>33748692.85</v>
       </c>
       <c r="E79">
         <v>32956118.69</v>
@@ -2736,7 +2736,7 @@
         <v>2013</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>53656017.89</v>
       </c>
       <c r="E80">
         <v>51529658.46</v>
@@ -2762,7 +2762,7 @@
         <v>2013</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>180944434.67</v>
       </c>
       <c r="E81">
         <v>145657966.37</v>
@@ -2788,7 +2788,7 @@
         <v>2013</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>173603037.09</v>
       </c>
       <c r="E82">
         <v>159648874.69</v>
@@ -2814,7 +2814,7 @@
         <v>2013</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>85066755.78</v>
       </c>
       <c r="E83">
         <v>80408339.91</v>
@@ -2840,7 +2840,7 @@
         <v>2013</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>46828273.05</v>
       </c>
       <c r="E84">
         <v>45733616.82</v>
@@ -2866,7 +2866,7 @@
         <v>2013</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>60762431.75</v>
       </c>
       <c r="E85">
         <v>56712373.61</v>
@@ -2892,7 +2892,7 @@
         <v>2013</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>359553222.76</v>
       </c>
       <c r="E86">
         <v>347241758.23</v>
@@ -2918,7 +2918,7 @@
         <v>2013</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>43202440.6</v>
       </c>
       <c r="E87">
         <v>41629339.29</v>
@@ -2944,7 +2944,7 @@
         <v>2013</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>205545545.3</v>
       </c>
       <c r="E88">
         <v>188479360.5</v>
@@ -2970,7 +2970,7 @@
         <v>2013</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>121493343.55</v>
       </c>
       <c r="E89">
         <v>117516964.86</v>
@@ -2996,7 +2996,7 @@
         <v>2013</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>33153822.71</v>
       </c>
       <c r="E90">
         <v>30632579.14</v>
@@ -3022,7 +3022,7 @@
         <v>2013</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>91253554.70999999</v>
       </c>
       <c r="E91">
         <v>86351126</v>
@@ -3048,7 +3048,7 @@
         <v>2013</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>755284600</v>
       </c>
       <c r="E92">
         <v>675813100</v>
@@ -19493,6 +19493,32 @@
       </c>
       <c r="H724">
         <v>501085807.4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="1">
+        <v>208128</v>
+      </c>
+      <c r="B725" t="s">
+        <v>61</v>
+      </c>
+      <c r="C725">
+        <v>2021</v>
+      </c>
+      <c r="D725">
+        <v>103912101.73</v>
+      </c>
+      <c r="E725">
+        <v>96559003.15000001</v>
+      </c>
+      <c r="F725">
+        <v>7353098.58</v>
+      </c>
+      <c r="G725">
+        <v>3770000.83</v>
+      </c>
+      <c r="H725">
+        <v>56948091.62</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/despesas_do_resumo.xlsx
+++ b/app/data/despesas_do_resumo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="99">
   <si>
     <t>municipio</t>
   </si>
@@ -668,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H725"/>
+  <dimension ref="A1:H729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19497,28 +19497,132 @@
     </row>
     <row r="725" spans="1:8">
       <c r="A725" s="1">
-        <v>208128</v>
+        <v>209514</v>
       </c>
       <c r="B725" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C725">
         <v>2021</v>
       </c>
       <c r="D725">
+        <v>103453529.04</v>
+      </c>
+      <c r="E725">
+        <v>99993675.42</v>
+      </c>
+      <c r="F725">
+        <v>3459853.62</v>
+      </c>
+      <c r="G725">
+        <v>3459853.62</v>
+      </c>
+      <c r="H725">
+        <v>64839343.72</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="A726" s="1">
+        <v>209519</v>
+      </c>
+      <c r="B726" t="s">
+        <v>51</v>
+      </c>
+      <c r="C726">
+        <v>2021</v>
+      </c>
+      <c r="D726">
+        <v>99358062.31</v>
+      </c>
+      <c r="E726">
+        <v>96264652.75</v>
+      </c>
+      <c r="F726">
+        <v>3093409.56</v>
+      </c>
+      <c r="G726">
+        <v>498187.21</v>
+      </c>
+      <c r="H726">
+        <v>55230909.46</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="1">
+        <v>209524</v>
+      </c>
+      <c r="B727" t="s">
+        <v>61</v>
+      </c>
+      <c r="C727">
+        <v>2021</v>
+      </c>
+      <c r="D727">
         <v>103912101.73</v>
       </c>
-      <c r="E725">
+      <c r="E727">
         <v>96559003.15000001</v>
       </c>
-      <c r="F725">
+      <c r="F727">
         <v>7353098.58</v>
       </c>
-      <c r="G725">
+      <c r="G727">
         <v>3770000.83</v>
       </c>
-      <c r="H725">
+      <c r="H727">
         <v>56948091.62</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="A728" s="1">
+        <v>209527</v>
+      </c>
+      <c r="B728" t="s">
+        <v>91</v>
+      </c>
+      <c r="C728">
+        <v>2021</v>
+      </c>
+      <c r="D728">
+        <v>600175557.74</v>
+      </c>
+      <c r="E728">
+        <v>592256759.6900001</v>
+      </c>
+      <c r="F728">
+        <v>7918798.05</v>
+      </c>
+      <c r="G728">
+        <v>2541309.02</v>
+      </c>
+      <c r="H728">
+        <v>364337350.02</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8">
+      <c r="A729" s="1">
+        <v>209532</v>
+      </c>
+      <c r="B729" t="s">
+        <v>96</v>
+      </c>
+      <c r="C729">
+        <v>2021</v>
+      </c>
+      <c r="D729">
+        <v>250774491.88</v>
+      </c>
+      <c r="E729">
+        <v>238066068</v>
+      </c>
+      <c r="F729">
+        <v>12708423.88</v>
+      </c>
+      <c r="G729">
+        <v>6883395.69</v>
+      </c>
+      <c r="H729">
+        <v>106462791.47</v>
       </c>
     </row>
   </sheetData>
